--- a/___Estadistica_1-Notas___/__Entregables__/Tarea#5/Tarea#5-CorzoVasquez.xlsx
+++ b/___Estadistica_1-Notas___/__Entregables__/Tarea#5/Tarea#5-CorzoVasquez.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\03_Semestre_Enero_Mayo_Dos_Mil_Veinte\____2.1____\___Estadistica_1-Notas___\__Entregables__\Tarea#5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C03FD6-2066-40D8-93A6-CDD4866CFF70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71FE28-EBA7-491F-8F35-E4B2AE584A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="163, #32,#33" sheetId="1" r:id="rId1"/>
-    <sheet name="170, #34, #35, #36" sheetId="2" r:id="rId2"/>
+    <sheet name="#27,#28,#29,#32" sheetId="3" r:id="rId1"/>
+    <sheet name="163,#33" sheetId="1" r:id="rId2"/>
+    <sheet name="170, #34, #35, #36" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>33)</t>
   </si>
@@ -63,11 +64,178 @@
     <t>Tabla de probabilidad conjunta</t>
   </si>
   <si>
-    <t>B) Usar margenes para precisar la razón de su elección</t>
+    <t>D) Estudiante de medio tiempo, probabilidad de que la proncipal razón sea calidad de la escuela</t>
+  </si>
+  <si>
+    <t>34)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Rh+</t>
+  </si>
+  <si>
+    <t>Rh-</t>
+  </si>
+  <si>
+    <t>A) Probabilidad que tenga sangre tipo O:</t>
+  </si>
+  <si>
+    <t>B) Tenga sangre tipo Rh-:</t>
+  </si>
+  <si>
+    <t>C) P(Rh-|O)=</t>
+  </si>
+  <si>
+    <t>D) P(B|Rh+)=</t>
+  </si>
+  <si>
+    <t>E) Probabilidad de un matrimonio los dos sean Rh-</t>
+  </si>
+  <si>
+    <t>35)</t>
+  </si>
+  <si>
+    <t>Ocupación</t>
+  </si>
+  <si>
+    <t>Tabla de probabilidad</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Directivo/Profesional</t>
+  </si>
+  <si>
+    <t>Enseñanza/Ventas/Administrativo</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Producción con precisión</t>
+  </si>
+  <si>
+    <t>Operadores/Obreros</t>
+  </si>
+  <si>
+    <t>Agricultura/Ganadería/Silvicultura/Pesca</t>
+  </si>
+  <si>
+    <t>B) Trabajador mujer que sea directivo o profesional</t>
+  </si>
+  <si>
+    <t>C) Trabajador hombre que esté en producción con precisión.</t>
+  </si>
+  <si>
+    <t>D) ¿Es la ocupación independiente del género?</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">C) Tiempo completo, probabilidad de la principal razón de su elección sea </t>
+      <t>P(D_P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∩ Mujer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)=</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P(P_P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>∩ Hombre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)=</t>
+    </r>
+  </si>
+  <si>
+    <t>B)Use las probabilidades marginales: calidad de la escuela, costo de la escuela y otras para comentar ¿cuál es la principal razón por la que eligen una escuela?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(calidad | Tiempo completo) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(Calidad | medio tiempo) = </t>
+  </si>
+  <si>
+    <t>A = evento estudiante de tiempo completo</t>
+  </si>
+  <si>
+    <t>B = evento que calidad sea su principal razón.</t>
+  </si>
+  <si>
+    <r>
+      <t>P(A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">∩B) = </t>
+    </r>
+  </si>
+  <si>
+    <t>P(A) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(B) = </t>
+  </si>
+  <si>
+    <t>P(A)P(B)=P(A∩B)</t>
+  </si>
+  <si>
+    <t>P(A)XP(B)=</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como P(A∩B)  no es igual a P(A)XP(B) los eventos </t>
     </r>
     <r>
       <rPr>
@@ -78,7 +246,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>calidad</t>
+      <t xml:space="preserve">no </t>
     </r>
     <r>
       <rPr>
@@ -88,114 +256,204 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de la escuela</t>
+      <t>son independientes.</t>
     </r>
   </si>
   <si>
-    <t>La probabilidad de su principal razón ser la calidad de la escuela es 0.21, aproximadamente 21%.</t>
-  </si>
-  <si>
-    <t>Aproximadamente el 51% o 0.51 se mete a la escuela por el costo, este es el índice más alto y se pude generalizar que es la razón más relevante entonces por la cual se meten los estudiantes a la escuela.</t>
-  </si>
-  <si>
-    <t>D) Estudiante de medio tiempo, probabilidad de que la proncipal razón sea calidad de la escuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P(calidad) = </t>
-  </si>
-  <si>
-    <t>La probabilidad de su principal razón ser la calidad es de aproximadamente el 20% o 0.20.</t>
-  </si>
-  <si>
-    <t>E) A denota el evento estudiante de tiempo completo y B es evento que la calidad sea su razón principal.</t>
-  </si>
-  <si>
-    <t>P(razon principal)=</t>
-  </si>
-  <si>
-    <t>P(A|B)=</t>
-  </si>
-  <si>
-    <t>Dado a que la calidad sea la razón prinipal cual es la probabilidad que sean de tiempo completo.</t>
-  </si>
-  <si>
-    <t>34)</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Rh+</t>
-  </si>
-  <si>
-    <t>Rh-</t>
-  </si>
-  <si>
-    <t>A) Probabilidad que tenga sangre tipo O:</t>
-  </si>
-  <si>
-    <t>B) Tenga sangre tipo Rh-:</t>
-  </si>
-  <si>
-    <t>C) P(Rh-|O)=</t>
-  </si>
-  <si>
-    <t>D) P(B|Rh+)=</t>
-  </si>
-  <si>
-    <t>E) Probabilidad de un matrimonio los dos sean Rh-</t>
-  </si>
-  <si>
-    <t>35)</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Tabla de probabilidad</t>
-  </si>
-  <si>
-    <t>D) Probabilidad que en un matrimonio, los dos tendan sangre AB</t>
-  </si>
-  <si>
-    <t>Hombres</t>
-  </si>
-  <si>
-    <t>Mujeres</t>
-  </si>
-  <si>
-    <t>Directivo/Profesional</t>
-  </si>
-  <si>
-    <t>Enseñanza/Ventas/Administrativo</t>
-  </si>
-  <si>
-    <t>Servicio</t>
-  </si>
-  <si>
-    <t>Producción con precisión</t>
-  </si>
-  <si>
-    <t>Operadores/Obreros</t>
-  </si>
-  <si>
-    <t>Agricultura/Ganadería/Silvicultura/Pesca</t>
+    <t>E) A denota el evento estudiante de tiempo completo y B es evento que la calidad sea su razón principal. Dado a que la calidad sea la razón prinipal cual es la probabilidad que sean de tiempo completo.</t>
+  </si>
+  <si>
+    <t>C) Tiempo completo, probabilidad de la principal razón de su elección sea calidad de la escuela</t>
+  </si>
+  <si>
+    <t>La principal razón de la elección es por el costo, dado a que es el que tiene mayor índice con un 0.51 a comparación de las demás que son mucho menores al índice de costo.</t>
+  </si>
+  <si>
+    <t>36)</t>
+  </si>
+  <si>
+    <t>A) Probabilidad que acerte a los dos tiros:</t>
+  </si>
+  <si>
+    <t>B) Acierte por lo menos uno de los dos tiros:</t>
+  </si>
+  <si>
+    <t>C) No acierte ninguno de los dos tiros:</t>
+  </si>
+  <si>
+    <t>D) Calcular las probabilidades en incisos a,b,c ¿es mejor tener a los indiana parcers o a Reggie Miller?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(Acertar 2/3) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(Acertar 1/3) = </t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>a)</t>
+  </si>
+  <si>
+    <t>R)</t>
+  </si>
+  <si>
+    <t>b)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>P(E)</t>
+  </si>
+  <si>
+    <t>P(R)</t>
+  </si>
+  <si>
+    <t>P(D)</t>
+  </si>
+  <si>
+    <r>
+      <t>P(E∩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D)</t>
+    </r>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>R) 0</t>
+  </si>
+  <si>
+    <t>d)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>P(admitido</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>Seguro medico</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>18-34</t>
+  </si>
+  <si>
+    <t>35 o mayor</t>
+  </si>
+  <si>
+    <t>Que el 46% esta entre los 18 y los 34 y el resto de los 35 en adelante</t>
+  </si>
+  <si>
+    <t>La probabilidad de que una persona no tenga seguro médico es del 15%</t>
+  </si>
+  <si>
+    <t>e)</t>
+  </si>
+  <si>
+    <t>f)</t>
+  </si>
+  <si>
+    <t>g)</t>
+  </si>
+  <si>
+    <t>De que es un sistema eficiente puesto que la mayoría posee seguro sin embargo no perfecto porque el 15% de las personas no poseen seguro médico</t>
+  </si>
+  <si>
+    <t>A = Evento servicio</t>
+  </si>
+  <si>
+    <t>B = mujer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(A|B) = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p(A) = </t>
+  </si>
+  <si>
+    <t>Los eventos son independiente de la ocupación.</t>
+  </si>
+  <si>
+    <t>Acertar dos tiros:</t>
+  </si>
+  <si>
+    <t>Acertar en los dos tiros:</t>
+  </si>
+  <si>
+    <t>No acierte ninguno:</t>
+  </si>
+  <si>
+    <t># La multiplicación de las dos posibilidades</t>
+  </si>
+  <si>
+    <t>F) Probabilidad que en un matrimonio, los dos tendan sangre AB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R// Es </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">menos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>probable que acerte. Mejor no hacer la falta.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +469,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,18 +510,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -371,39 +654,117 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -411,8 +772,64 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -423,21 +840,34 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -451,55 +881,153 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -776,35 +1304,895 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6634B40A-5EBC-419F-AE80-796F178FC0F3}">
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="38">
+        <f>6823/13429</f>
+        <v>0.50807952937672207</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="38">
+        <f>(4494+2961-6823)/13429</f>
+        <v>4.7062327798048996E-2</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="38">
+        <f>B6</f>
+        <v>4.7062327798048996E-2</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="38">
+        <f>0.458+0.54-0.3</f>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="38">
+        <f>1-B13</f>
+        <v>0.30200000000000005</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="37">
+        <f>1033/2851</f>
+        <v>0.36232900736583656</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="37">
+        <f>854/2851</f>
+        <v>0.29954401964223082</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="37">
+        <f>964/2851</f>
+        <v>0.33812697299193267</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="38">
+        <f>1033/2375</f>
+        <v>0.43494736842105264</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="37"/>
+      <c r="B30" s="40">
+        <f>964*0.18</f>
+        <v>173.51999999999998</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="37">
+        <f>1033+174</f>
+        <v>1207</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="38">
+        <f>1207/2851</f>
+        <v>0.42336022448263766</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="41">
+        <f>750/2000</f>
+        <v>0.375</v>
+      </c>
+      <c r="C37" s="41">
+        <f>170/2000</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D37" s="41">
+        <f>920/2000</f>
+        <v>0.46</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="41">
+        <f>950/2000</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C38" s="41">
+        <f>130/2000</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D38" s="41">
+        <f>1080/2000</f>
+        <v>0.54</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="41">
+        <f>B38+B37</f>
+        <v>0.85</v>
+      </c>
+      <c r="C39" s="41">
+        <f>C38+C37</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="D39" s="41">
+        <f>D38+D37</f>
+        <v>1</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="38">
+        <f>C37/D37</f>
+        <v>0.18478260869565219</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="38">
+        <f>C38/D38</f>
+        <v>0.12037037037037036</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="38">
+        <f>C37/C39</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -818,7 +2206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -835,7 +2223,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -852,7 +2240,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -869,236 +2257,235 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+    <row r="8" spans="1:6">
+      <c r="B8" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:6">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
-        <f>C4/$F$6</f>
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:F12" si="0">C4/$F$6</f>
         <v>0.21824779678589942</v>
       </c>
-      <c r="D10" s="4">
-        <f>D4/$F$6</f>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
         <v>0.20373250388802489</v>
       </c>
-      <c r="E10" s="5">
-        <f>E4/$F$6</f>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
         <v>3.9398652151373767E-2</v>
       </c>
-      <c r="F10" s="13">
-        <f>F4/$F$6</f>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
         <v>0.46137895282529806</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
-        <f>C5/$F$6</f>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
         <v>0.20736132711249353</v>
       </c>
-      <c r="D11" s="8">
-        <f>D5/$F$6</f>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
         <v>0.30741316744427166</v>
       </c>
-      <c r="E11" s="9">
-        <f>E5/$F$6</f>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
         <v>2.3846552617936754E-2</v>
       </c>
-      <c r="F11" s="14">
-        <f>F5/$F$6</f>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
         <v>0.53862104717470194</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11">
-        <f>C6/$F$6</f>
+      <c r="C12" s="10">
+        <f t="shared" si="0"/>
         <v>0.42560912389839295</v>
       </c>
-      <c r="D12" s="12">
-        <f>D6/$F$6</f>
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
         <v>0.51114567133229649</v>
       </c>
-      <c r="E12" s="12">
-        <f>E6/$F$6</f>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
         <v>6.3245204769310517E-2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f>F6/$F$6</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="B14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.21824779678589942</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.20373250388802489</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>3.9398652151373767E-2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.46137895282529806</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0.20736132711249353</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.30741316744427166</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2.3846552617936754E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.53862104717470194</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+    <row r="19" spans="2:10">
+      <c r="B19" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-    </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="30">
-        <f>D12</f>
-        <v>0.51114567133229649</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="2:10" s="19" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" customHeight="1">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" s="15" customFormat="1">
+      <c r="B24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="25">
+        <f>C10/F10</f>
+        <v>0.47303370786516857</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -1106,373 +2493,924 @@
       <c r="G26" s="24"/>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="30">
-        <f>C10</f>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="2:10" ht="30">
+      <c r="B30" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="26">
+        <f>C11/F11</f>
+        <v>0.38498556304138593</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1">
+      <c r="B34" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="2:10" ht="18.75" customHeight="1">
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="22"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <f>C16</f>
         <v>0.21824779678589942</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="30">
-        <f>C11</f>
-        <v>0.20736132711249353</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="29">
-        <f>C10/C12</f>
-        <v>0.51278928136419</v>
-      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <f>F16</f>
+        <v>0.46137895282529806</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <f>C12</f>
+        <v>0.42560912389839295</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <f>C40*C41</f>
+        <v>0.19636709189713308</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B25:J26"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J31"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:G35"/>
+  <mergeCells count="9">
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B20:J21"/>
+    <mergeCell ref="B19:G20"/>
+    <mergeCell ref="B21:G22"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B34:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205A199C-13BA-408A-A1D6-3FC2F6BB3454}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
+    <row r="3" spans="1:7">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.34</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.09</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.04</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.38</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="17">
         <f>SUM(C3:F3)</f>
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="4" spans="1:7">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7">
         <v>0.06</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.02</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>0.01</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>0.06</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="17">
         <f>SUM(C4:F4)</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="17">
         <f>SUM(C3:C4)</f>
         <v>0.4</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="17">
         <f t="shared" ref="D5:G5" si="0">SUM(D3:D4)</f>
         <v>0.11</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="7" spans="1:7">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="27">
         <f>F5</f>
         <v>0.44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="9" spans="1:7">
+      <c r="A9" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="27">
         <f>G4</f>
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="27">
+        <f>F4/F5</f>
+        <v>0.13636363636363635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="27">
+        <f>D3/G3</f>
+        <v>0.10588235294117646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="27">
+        <f>G4*G4</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="27">
+        <f>E3*E4</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43">
+        <v>19079</v>
+      </c>
+      <c r="E23" s="43">
+        <v>19021</v>
+      </c>
+      <c r="F23" s="49">
+        <f>SUM(D23:E23)</f>
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="3">
+        <v>11079</v>
+      </c>
+      <c r="E24" s="43">
+        <v>19315</v>
+      </c>
+      <c r="F24" s="49">
+        <f t="shared" ref="F24:F28" si="1">SUM(D24:E24)</f>
+        <v>30394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <f>F4</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="43">
+        <v>4977</v>
+      </c>
+      <c r="E25" s="43">
+        <v>7947</v>
+      </c>
+      <c r="F25" s="49">
+        <f t="shared" si="1"/>
+        <v>12924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="48" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>D3</f>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="43">
+        <v>11682</v>
+      </c>
+      <c r="E26" s="43">
+        <v>1138</v>
+      </c>
+      <c r="F26" s="49">
+        <f t="shared" si="1"/>
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="48" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="43">
+        <v>10576</v>
+      </c>
+      <c r="E27" s="43">
+        <v>3482</v>
+      </c>
+      <c r="F27" s="49">
+        <f t="shared" si="1"/>
+        <v>14058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43">
+        <v>1838</v>
+      </c>
+      <c r="E28" s="43">
+        <v>514</v>
+      </c>
+      <c r="F28" s="49">
+        <f t="shared" si="1"/>
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="B29" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52">
+        <f>SUM(D23:D28)</f>
+        <v>59231</v>
+      </c>
+      <c r="E29" s="52">
+        <f>SUM(E23:E28)</f>
+        <v>51417</v>
+      </c>
+      <c r="F29" s="53">
+        <f>D29+E29</f>
+        <v>110648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1"/>
+    <row r="33" spans="2:6" ht="15" customHeight="1">
+      <c r="B33" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="73"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" customHeight="1">
+      <c r="B35" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="54">
+        <f>D23/$F$29</f>
+        <v>0.17242968693514568</v>
+      </c>
+      <c r="E35" s="74">
+        <f>E23/$F$29</f>
+        <v>0.17190550213288988</v>
+      </c>
+      <c r="F35" s="75"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" customHeight="1">
+      <c r="B36" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="63"/>
+      <c r="D36" s="54">
+        <f t="shared" ref="D36:E40" si="2">D24/$F$29</f>
+        <v>0.10012833489986263</v>
+      </c>
+      <c r="E36" s="74">
+        <f t="shared" si="2"/>
+        <v>0.17456257682018653</v>
+      </c>
+      <c r="F36" s="75"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" customHeight="1">
+      <c r="B37" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="63"/>
+      <c r="D37" s="54">
+        <f t="shared" si="2"/>
+        <v>4.4980478634950471E-2</v>
+      </c>
+      <c r="E37" s="74">
+        <f t="shared" si="2"/>
+        <v>7.1822355578049307E-2</v>
+      </c>
+      <c r="F37" s="75"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="54">
+        <f t="shared" si="2"/>
+        <v>0.10557804930952208</v>
+      </c>
+      <c r="E38" s="74">
+        <f t="shared" si="2"/>
+        <v>1.0284867327019016E-2</v>
+      </c>
+      <c r="F38" s="75"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="63"/>
+      <c r="D39" s="54">
+        <f t="shared" si="2"/>
+        <v>9.5582387390644202E-2</v>
+      </c>
+      <c r="E39" s="74">
+        <f t="shared" si="2"/>
+        <v>3.1469163473356952E-2</v>
+      </c>
+      <c r="F39" s="75"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B40" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="56">
+        <f t="shared" si="2"/>
+        <v>1.6611235630106282E-2</v>
+      </c>
+      <c r="E40" s="76">
+        <f t="shared" si="2"/>
+        <v>4.6453618682669364E-3</v>
+      </c>
+      <c r="F40" s="77"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="42" spans="2:6">
+      <c r="B42" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="71"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="67"/>
+      <c r="D44" s="3">
+        <v>0.17242968693514568</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.17190550213288988</v>
+      </c>
+      <c r="F44" s="55">
+        <f t="shared" ref="F44:F48" si="3">SUM(D44:E44)</f>
+        <v>0.34433518906803556</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="3">
+        <v>0.10012833489986263</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.17456257682018653</v>
+      </c>
+      <c r="F45" s="55">
+        <f t="shared" si="3"/>
+        <v>0.27469091172004917</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="67"/>
+      <c r="D46" s="3">
+        <v>4.4980478634950471E-2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7.1822355578049307E-2</v>
+      </c>
+      <c r="F46" s="55">
+        <f t="shared" si="3"/>
+        <v>0.11680283421299978</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="67"/>
+      <c r="D47" s="3">
+        <v>0.10557804930952208</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1.0284867327019016E-2</v>
+      </c>
+      <c r="F47" s="55">
+        <f t="shared" si="3"/>
+        <v>0.11586291663654109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="3">
+        <v>9.5582387390644202E-2</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3.1469163473356952E-2</v>
+      </c>
+      <c r="F48" s="55">
+        <f t="shared" si="3"/>
+        <v>0.12705155086400116</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="67"/>
+      <c r="D49" s="3">
+        <v>1.6611235630106282E-2</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4.6453618682669364E-3</v>
+      </c>
+      <c r="F49" s="55">
+        <f>SUM(D49:E49)</f>
+        <v>2.125659749837322E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B50" s="68"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="58">
+        <f>SUM(D44:D49)</f>
+        <v>0.5353101728002313</v>
+      </c>
+      <c r="E50" s="58">
+        <f>SUM(E44:E49)</f>
+        <v>0.46468982719976853</v>
+      </c>
+      <c r="F50" s="57">
+        <f>D50+E50</f>
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="27">
+        <f>E44/E50</f>
+        <v>0.36993601338078852</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="27">
+        <f>D47/D50</f>
+        <v>0.19722780300855972</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="32">
-        <v>19079</v>
-      </c>
-      <c r="E23" s="32">
-        <v>19021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24">
-        <v>11079</v>
-      </c>
-      <c r="E24" s="32">
-        <v>19315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="32">
-        <v>4977</v>
-      </c>
-      <c r="E25" s="32">
-        <v>7947</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="32">
-        <v>11682</v>
-      </c>
-      <c r="E26" s="32">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="32">
-        <v>10576</v>
-      </c>
-      <c r="E27" s="32">
-        <v>3482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="32">
-        <v>1838</v>
-      </c>
-      <c r="E28" s="32">
-        <v>514</v>
-      </c>
+    <row r="59" spans="2:6">
+      <c r="B59" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="28">
+        <f>E46</f>
+        <v>7.1822355578049307E-2</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62">
+        <f>E46/E50</f>
+        <v>0.1545597759495887</v>
+      </c>
+      <c r="F62" s="19"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="28"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="28"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="27">
+        <f>0.85*0.85</f>
+        <v>0.72249999999999992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="27">
+        <f>C68+(0.85*0.15)</f>
+        <v>0.84999999999999987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="C74" s="27">
+        <f>(1-0.85)^2</f>
+        <v>2.2500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="C76" s="22"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="C78" s="27">
+        <f>0.58*0.58</f>
+        <v>0.33639999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15" customHeight="1">
+      <c r="C80" s="27">
+        <f>C78+(C82*0.58)</f>
+        <v>0.43871199999999999</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="C82" s="27">
+        <f>(1-0.58)^2</f>
+        <v>0.17640000000000003</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="32">
+    <mergeCell ref="E80:H82"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
@@ -1480,7 +3418,20 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/___Estadistica_1-Notas___/__Entregables__/Tarea#5/Tarea#5-CorzoVasquez.xlsx
+++ b/___Estadistica_1-Notas___/__Entregables__/Tarea#5/Tarea#5-CorzoVasquez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\03_Semestre_Enero_Mayo_Dos_Mil_Veinte\____2.1____\___Estadistica_1-Notas___\__Entregables__\Tarea#5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC71FE28-EBA7-491F-8F35-E4B2AE584A20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5A24C-0749-418C-9B81-22A24AB270FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#27,#28,#29,#32" sheetId="3" r:id="rId1"/>
@@ -441,7 +441,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>probable que acerte. Mejor no hacer la falta.</t>
+      <t>probable que acerte. Mejor hacer la falta.</t>
     </r>
   </si>
 </sst>
@@ -906,27 +906,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -945,21 +924,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -970,6 +937,72 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -979,51 +1012,18 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,856 +1307,856 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6634B40A-5EBC-419F-AE80-796F178FC0F3}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="31">
         <f>6823/13429</f>
         <v>0.50807952937672207</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="31">
         <f>(4494+2961-6823)/13429</f>
         <v>4.7062327798048996E-2</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="31">
         <f>B6</f>
         <v>4.7062327798048996E-2</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="31">
         <f>0.458+0.54-0.3</f>
         <v>0.69799999999999995</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="31">
         <f>1-B13</f>
         <v>0.30200000000000005</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="30">
         <f>1033/2851</f>
         <v>0.36232900736583656</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="30">
         <f>854/2851</f>
         <v>0.29954401964223082</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="30">
         <f>964/2851</f>
         <v>0.33812697299193267</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="31">
         <f>1033/2375</f>
         <v>0.43494736842105264</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="40">
+      <c r="A30" s="30"/>
+      <c r="B30" s="33">
         <f>964*0.18</f>
         <v>173.51999999999998</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="30">
         <f>1033+174</f>
         <v>1207</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="31">
         <f>1207/2851</f>
         <v>0.42336022448263766</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="34">
         <f>750/2000</f>
         <v>0.375</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="34">
         <f>170/2000</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="34">
         <f>920/2000</f>
         <v>0.46</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="34">
         <f>950/2000</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="34">
         <f>130/2000</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="34">
         <f>1080/2000</f>
         <v>0.54</v>
       </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="34">
         <f>B38+B37</f>
         <v>0.85</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="34">
         <f>C38+C37</f>
         <v>0.15000000000000002</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="34">
         <f>D38+D37</f>
         <v>1</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="31">
         <f>C37/D37</f>
         <v>0.18478260869565219</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="31">
         <f>C38/D38</f>
         <v>0.12037037037037036</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="31">
         <f>C37/C39</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2184,13 +2184,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" t="s">
@@ -2258,13 +2258,13 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="C9" s="2" t="s">
@@ -2344,13 +2344,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" s="2" t="s">
@@ -2401,46 +2401,46 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1">
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
@@ -2457,16 +2457,16 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10" s="15" customFormat="1">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="25" t="s">
@@ -2507,19 +2507,19 @@
       <c r="J27" s="16"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="2:10" ht="30">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="26" t="s">
         <v>40</v>
       </c>
@@ -2558,28 +2558,28 @@
       <c r="J32" s="16"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1">
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
     </row>
     <row r="35" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="22" t="s">
@@ -2634,11 +2634,11 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2661,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205A199C-13BA-408A-A1D6-3FC2F6BB3454}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2834,130 +2834,130 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43">
+      <c r="C23" s="69"/>
+      <c r="D23" s="35">
         <v>19079</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="35">
         <v>19021</v>
       </c>
-      <c r="F23" s="49">
+      <c r="F23" s="38">
         <f>SUM(D23:E23)</f>
         <v>38100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="42"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="3">
         <v>11079</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="35">
         <v>19315</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="38">
         <f t="shared" ref="F24:F28" si="1">SUM(D24:E24)</f>
         <v>30394</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43">
+      <c r="C25" s="69"/>
+      <c r="D25" s="35">
         <v>4977</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="35">
         <v>7947</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="38">
         <f t="shared" si="1"/>
         <v>12924</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43">
+      <c r="C26" s="69"/>
+      <c r="D26" s="35">
         <v>11682</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="35">
         <v>1138</v>
       </c>
-      <c r="F26" s="49">
+      <c r="F26" s="38">
         <f t="shared" si="1"/>
         <v>12820</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43">
+      <c r="C27" s="69"/>
+      <c r="D27" s="35">
         <v>10576</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="35">
         <v>3482</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="38">
         <f t="shared" si="1"/>
         <v>14058</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43">
+      <c r="C28" s="69"/>
+      <c r="D28" s="35">
         <v>1838</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="35">
         <v>514</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="38">
         <f t="shared" si="1"/>
         <v>2352</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52">
+      <c r="C29" s="40"/>
+      <c r="D29" s="41">
         <f>SUM(D23:D28)</f>
         <v>59231</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="41">
         <f>SUM(E23:E28)</f>
         <v>51417</v>
       </c>
-      <c r="F29" s="53">
+      <c r="F29" s="42">
         <f>D29+E29</f>
         <v>110648</v>
       </c>
@@ -2967,248 +2967,248 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1"/>
     <row r="33" spans="2:6" ht="15" customHeight="1">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="70" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="78"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1">
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="54">
+      <c r="C35" s="71"/>
+      <c r="D35" s="43">
         <f>D23/$F$29</f>
         <v>0.17242968693514568</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="62">
         <f>E23/$F$29</f>
         <v>0.17190550213288988</v>
       </c>
-      <c r="F35" s="75"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1">
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="54">
+      <c r="C36" s="71"/>
+      <c r="D36" s="43">
         <f t="shared" ref="D36:E40" si="2">D24/$F$29</f>
         <v>0.10012833489986263</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E36" s="62">
         <f t="shared" si="2"/>
         <v>0.17456257682018653</v>
       </c>
-      <c r="F36" s="75"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="54">
+      <c r="C37" s="71"/>
+      <c r="D37" s="43">
         <f t="shared" si="2"/>
         <v>4.4980478634950471E-2</v>
       </c>
-      <c r="E37" s="74">
+      <c r="E37" s="62">
         <f t="shared" si="2"/>
         <v>7.1822355578049307E-2</v>
       </c>
-      <c r="F37" s="75"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="63"/>
-      <c r="D38" s="54">
+      <c r="C38" s="71"/>
+      <c r="D38" s="43">
         <f t="shared" si="2"/>
         <v>0.10557804930952208</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E38" s="62">
         <f t="shared" si="2"/>
         <v>1.0284867327019016E-2</v>
       </c>
-      <c r="F38" s="75"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="54">
+      <c r="C39" s="71"/>
+      <c r="D39" s="43">
         <f t="shared" si="2"/>
         <v>9.5582387390644202E-2</v>
       </c>
-      <c r="E39" s="74">
+      <c r="E39" s="62">
         <f t="shared" si="2"/>
         <v>3.1469163473356952E-2</v>
       </c>
-      <c r="F39" s="75"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="56">
+      <c r="C40" s="76"/>
+      <c r="D40" s="45">
         <f t="shared" si="2"/>
         <v>1.6611235630106282E-2</v>
       </c>
-      <c r="E40" s="76">
+      <c r="E40" s="60">
         <f t="shared" si="2"/>
         <v>4.6453618682669364E-3</v>
       </c>
-      <c r="F40" s="77"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="42" spans="2:6">
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="61"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="74"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="70" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="71"/>
+      <c r="F43" s="49"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="67"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="3">
         <v>0.17242968693514568</v>
       </c>
       <c r="E44" s="3">
         <v>0.17190550213288988</v>
       </c>
-      <c r="F44" s="55">
+      <c r="F44" s="44">
         <f t="shared" ref="F44:F48" si="3">SUM(D44:E44)</f>
         <v>0.34433518906803556</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="67"/>
+      <c r="C45" s="59"/>
       <c r="D45" s="3">
         <v>0.10012833489986263</v>
       </c>
       <c r="E45" s="3">
         <v>0.17456257682018653</v>
       </c>
-      <c r="F45" s="55">
+      <c r="F45" s="44">
         <f t="shared" si="3"/>
         <v>0.27469091172004917</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="3">
         <v>4.4980478634950471E-2</v>
       </c>
       <c r="E46" s="3">
         <v>7.1822355578049307E-2</v>
       </c>
-      <c r="F46" s="55">
+      <c r="F46" s="44">
         <f t="shared" si="3"/>
         <v>0.11680283421299978</v>
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="67"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="3">
         <v>0.10557804930952208</v>
       </c>
       <c r="E47" s="3">
         <v>1.0284867327019016E-2</v>
       </c>
-      <c r="F47" s="55">
+      <c r="F47" s="44">
         <f t="shared" si="3"/>
         <v>0.11586291663654109</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="67"/>
+      <c r="C48" s="59"/>
       <c r="D48" s="3">
         <v>9.5582387390644202E-2</v>
       </c>
       <c r="E48" s="3">
         <v>3.1469163473356952E-2</v>
       </c>
-      <c r="F48" s="55">
+      <c r="F48" s="44">
         <f t="shared" si="3"/>
         <v>0.12705155086400116</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="67"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="3">
         <v>1.6611235630106282E-2</v>
       </c>
       <c r="E49" s="3">
         <v>4.6453618682669364E-3</v>
       </c>
-      <c r="F49" s="55">
+      <c r="F49" s="44">
         <f>SUM(D49:E49)</f>
         <v>2.125659749837322E-2</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B50" s="68"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="58">
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="47">
         <f>SUM(D44:D49)</f>
         <v>0.5353101728002313</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="47">
         <f>SUM(E44:E49)</f>
         <v>0.46468982719976853</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="46">
         <f>D50+E50</f>
         <v>0.99999999999999978</v>
       </c>
@@ -3287,7 +3287,7 @@
       <c r="F62" s="19"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="78" t="s">
+      <c r="B63" s="50" t="s">
         <v>92</v>
       </c>
       <c r="C63" s="27"/>
@@ -3370,54 +3370,34 @@
         <f>C78+(C82*0.58)</f>
         <v>0.43871199999999999</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="29"/>
-      <c r="H81" s="29"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
     </row>
     <row r="82" spans="2:8">
       <c r="C82" s="27">
         <f>(1-0.58)^2</f>
         <v>0.17640000000000003</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E80:H82"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B42:F42"/>
@@ -3430,6 +3410,26 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="E80:H82"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/___Estadistica_1-Notas___/__Entregables__/Tarea#5/Tarea#5-CorzoVasquez.xlsx
+++ b/___Estadistica_1-Notas___/__Entregables__/Tarea#5/Tarea#5-CorzoVasquez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\03_Semestre_Enero_Mayo_Dos_Mil_Veinte\____2.1____\___Estadistica_1-Notas___\__Entregables__\Tarea#5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E5A24C-0749-418C-9B81-22A24AB270FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC0707-8787-425D-9F37-5957F2ABBD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#27,#28,#29,#32" sheetId="3" r:id="rId1"/>
@@ -34,8 +34,93 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5C487E74-1684-47B4-ACA8-F8E5E664B59A}</author>
+    <author>DAVID CORZO</author>
+  </authors>
+  <commentList>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{5C487E74-1684-47B4-ACA8-F8E5E664B59A}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    real</t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{A9E8BE10-0C39-4427-9EEA-0AEB61E06908}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAVID CORZO:</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={F051EA58-8F8A-4536-835E-7073AF74859E}</author>
+    <author>tc={171ECDD9-A4B7-4838-A442-B1147970AF4A}</author>
+    <author>tc={4195C586-7B16-4BBC-B604-56C2A48A9E0E}</author>
+    <author>tc={BD0AB075-EBFF-4BB0-B15D-BE44A875162B}</author>
+  </authors>
+  <commentList>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{F051EA58-8F8A-4536-835E-7073AF74859E}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Estoy tomando en cuenta que es un evento independiente.
+Respuesta:
+    Los eventos son tomados a ser independientes por que cuando se tiene a dos personas se asume que no tienen nada en común</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="1" shapeId="0" xr:uid="{171ECDD9-A4B7-4838-A442-B1147970AF4A}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Tras hacer la proeba de independencia:
+A: Sangre tipo A.
+-: Rh-
+P(A) = 0.15
+P(-|A)=0.06/0.4=0.50
+Entonces como P(A) == P(-|A) los eventos son INDEPENDIENTES.</t>
+      </text>
+    </comment>
+    <comment ref="F44" authorId="2" shapeId="0" xr:uid="{4195C586-7B16-4BBC-B604-56C2A48A9E0E}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    P(A)</t>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="3" shapeId="0" xr:uid="{BD0AB075-EBFF-4BB0-B15D-BE44A875162B}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Si son iguales son independientes.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="110">
   <si>
     <t>33)</t>
   </si>
@@ -143,30 +228,6 @@
   </si>
   <si>
     <t>D) ¿Es la ocupación independiente del género?</t>
-  </si>
-  <si>
-    <r>
-      <t>P(D_P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>∩ Mujer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)=</t>
-    </r>
   </si>
   <si>
     <r>
@@ -389,9 +450,6 @@
     <t>De que es un sistema eficiente puesto que la mayoría posee seguro sin embargo no perfecto porque el 15% de las personas no poseen seguro médico</t>
   </si>
   <si>
-    <t>A = Evento servicio</t>
-  </si>
-  <si>
     <t>B = mujer</t>
   </si>
   <si>
@@ -401,9 +459,6 @@
     <t xml:space="preserve">p(A) = </t>
   </si>
   <si>
-    <t>Los eventos son independiente de la ocupación.</t>
-  </si>
-  <si>
     <t>Acertar dos tiros:</t>
   </si>
   <si>
@@ -411,9 +466,6 @@
   </si>
   <si>
     <t>No acierte ninguno:</t>
-  </si>
-  <si>
-    <t># La multiplicación de las dos posibilidades</t>
   </si>
   <si>
     <t>F) Probabilidad que en un matrimonio, los dos tendan sangre AB</t>
@@ -444,16 +496,86 @@
       <t>probable que acerte. Mejor hacer la falta.</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>P(D_P|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mujer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)=</t>
+    </r>
+  </si>
+  <si>
+    <t>* Sabemos que es mujer, ¿cuál es la probabilidad de que sea directivo profesional.</t>
+  </si>
+  <si>
+    <t>* Lo mismo solo que para los hombres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* </t>
+  </si>
+  <si>
+    <t>A = que sea directivo profesiona</t>
+  </si>
+  <si>
+    <t>No son independientes por que P(A|B) no es igual a P(A).</t>
+  </si>
+  <si>
+    <t>Big Ten</t>
+  </si>
+  <si>
+    <t>Pac 10</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(B∩P) = </t>
+  </si>
+  <si>
+    <t>P(N^c)=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P(B)+P(p)-P(B∩P) = </t>
+  </si>
+  <si>
+    <t>6606/13429=</t>
+  </si>
+  <si>
+    <t>0.022+0.33-P(B∩P)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = P(B∩P)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +609,27 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -527,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -861,12 +1004,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -961,6 +1185,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -973,59 +1248,49 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1040,6 +1305,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F629EDD0-03AB-4C5E-B968-287339D2CFCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="3176587"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-GT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="David Corzo" id="{CB9A15C8-3444-47D7-8066-569715C2EF16}" userId="S::davidcorzo@office.ufm.edu::64433b81-17c1-464b-b78f-6a6bd150a5d7" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1303,19 +1634,55 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C6" dT="2020-02-11T18:31:05.31" personId="{CB9A15C8-3444-47D7-8066-569715C2EF16}" id="{5C487E74-1684-47B4-ACA8-F8E5E664B59A}">
+    <text>real</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B16" dT="2020-02-11T18:09:23.02" personId="{CB9A15C8-3444-47D7-8066-569715C2EF16}" id="{F051EA58-8F8A-4536-835E-7073AF74859E}">
+    <text>Estoy tomando en cuenta que es un evento independiente.</text>
+  </threadedComment>
+  <threadedComment ref="B16" dT="2020-02-11T18:11:13.58" personId="{CB9A15C8-3444-47D7-8066-569715C2EF16}" id="{F234FCA9-D0B1-4531-9D0F-5B11CE1BB1F8}" parentId="{F051EA58-8F8A-4536-835E-7073AF74859E}">
+    <text>Los eventos son tomados a ser independientes por que cuando se tiene a dos personas se asume que no tienen nada en común</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2020-02-11T18:17:11.18" personId="{CB9A15C8-3444-47D7-8066-569715C2EF16}" id="{171ECDD9-A4B7-4838-A442-B1147970AF4A}">
+    <text>Tras hacer la proeba de independencia:
+A: Sangre tipo A.
+-: Rh-
+P(A) = 0.15
+P(-|A)=0.06/0.4=0.50
+Entonces como P(A) == P(-|A) los eventos son INDEPENDIENTES.</text>
+  </threadedComment>
+  <threadedComment ref="F44" dT="2020-02-11T17:57:59.49" personId="{CB9A15C8-3444-47D7-8066-569715C2EF16}" id="{4195C586-7B16-4BBC-B604-56C2A48A9E0E}">
+    <text>P(A)</text>
+  </threadedComment>
+  <threadedComment ref="B58" dT="2020-02-11T17:58:37.32" personId="{CB9A15C8-3444-47D7-8066-569715C2EF16}" id="{BD0AB075-EBFF-4BB0-B15D-BE44A875162B}">
+    <text>Si son iguales son independientes.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6634B40A-5EBC-419F-AE80-796F178FC0F3}">
-  <dimension ref="A1:I61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6634B40A-5EBC-419F-AE80-796F178FC0F3}">
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1326,9 +1693,9 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -1339,63 +1706,109 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="31">
         <f>6823/13429</f>
         <v>0.50807952937672207</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="D3" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="82"/>
+      <c r="H3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="83">
+        <v>2961</v>
+      </c>
+      <c r="E4" s="84">
+        <v>4494</v>
+      </c>
+      <c r="F4" s="84">
+        <v>6823</v>
+      </c>
+      <c r="G4" s="85">
+        <f>D4+E4+F4</f>
+        <v>14278</v>
+      </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="86">
+        <v>13429</v>
+      </c>
+      <c r="E5" s="87">
+        <v>13429</v>
+      </c>
+      <c r="F5" s="87">
+        <v>13429</v>
+      </c>
+      <c r="G5" s="88"/>
       <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="30">
+        <f>-(0.49-0.55)</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="31">
+        <v>60</v>
+      </c>
+      <c r="B6" s="90">
         <f>(4494+2961-6823)/13429</f>
         <v>4.7062327798048996E-2</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="30">
+        <f>6606/13429</f>
+        <v>0.49192047062327798</v>
+      </c>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <f>0.22+0.06+0.33+0.51</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -1406,9 +1819,9 @@
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -1419,15 +1832,18 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="31">
+        <v>60</v>
+      </c>
+      <c r="B9" s="91">
         <f>B6</f>
         <v>4.7062327798048996E-2</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="92">
+        <f>-(C6-0.22-0.33)</f>
+        <v>5.8079529376722061E-2</v>
+      </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30"/>
@@ -1435,7 +1851,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -1446,9 +1862,9 @@
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1459,9 +1875,9 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -1472,9 +1888,9 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="31">
         <f>0.458+0.54-0.3</f>
@@ -1488,7 +1904,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -1499,9 +1915,9 @@
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -1512,9 +1928,9 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="31">
         <f>1-B13</f>
@@ -1541,7 +1957,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -1554,7 +1970,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -1567,10 +1983,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="30">
         <f>1033/2851</f>
@@ -1586,7 +2002,7 @@
     <row r="21" spans="1:9">
       <c r="A21" s="30"/>
       <c r="B21" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="30">
         <f>854/2851</f>
@@ -1602,7 +2018,7 @@
     <row r="22" spans="1:9">
       <c r="A22" s="30"/>
       <c r="B22" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="30">
         <f>964/2851</f>
@@ -1628,7 +2044,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -1641,13 +2057,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -1669,10 +2085,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="31">
         <f>1033/2375</f>
@@ -1698,7 +2114,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -1725,7 +2141,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="30">
         <f>1033+174</f>
@@ -1741,10 +2157,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="31">
         <f>1207/2851</f>
@@ -1770,7 +2186,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -1783,10 +2199,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -1798,16 +2214,16 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="C36" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>79</v>
-      </c>
       <c r="D36" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -1817,7 +2233,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="34">
         <f>750/2000</f>
@@ -1839,7 +2255,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="34">
         <f>950/2000</f>
@@ -1861,7 +2277,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="34">
         <f>B38+B37</f>
@@ -1894,7 +2310,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -1907,7 +2323,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -1931,7 +2347,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -1944,7 +2360,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -1968,7 +2384,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -1981,7 +2397,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="31">
         <f>C37/D37</f>
@@ -2008,7 +2424,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -2021,7 +2437,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="31">
         <f>C38/D38</f>
@@ -2048,7 +2464,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2061,7 +2477,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="31">
         <f>C37/C39</f>
@@ -2088,7 +2504,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -2101,10 +2517,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
@@ -2160,6 +2576,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2402,7 +2820,7 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
@@ -2423,7 +2841,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="56"/>
       <c r="D21" s="56"/>
@@ -2458,7 +2876,7 @@
     </row>
     <row r="24" spans="2:10" s="15" customFormat="1">
       <c r="B24" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="54"/>
@@ -2470,7 +2888,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="25">
         <f>C10/F10</f>
@@ -2521,7 +2939,7 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="26">
         <f>C11/F11</f>
@@ -2559,7 +2977,7 @@
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1">
       <c r="B34" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
@@ -2583,23 +3001,23 @@
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="22"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39">
         <f>C16</f>
@@ -2608,7 +3026,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <f>F16</f>
@@ -2617,7 +3035,7 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <f>C12</f>
@@ -2626,7 +3044,7 @@
     </row>
     <row r="42" spans="2:10">
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <f>C40*C41</f>
@@ -2635,7 +3053,7 @@
     </row>
     <row r="43" spans="2:10">
       <c r="B43" s="51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
@@ -2658,11 +3076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205A199C-13BA-408A-A1D6-3FC2F6BB3454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205A199C-13BA-408A-A1D6-3FC2F6BB3454}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80:H82"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2817,16 +3235,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" s="27">
-        <f>E3*E4</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
+        <f>E5^2</f>
+        <v>2.5000000000000005E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1"/>
@@ -2834,10 +3249,10 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="36" t="s">
         <v>25</v>
       </c>
@@ -2849,10 +3264,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="69"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="35">
         <v>19079</v>
       </c>
@@ -2865,10 +3280,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="72"/>
       <c r="D24" s="3">
         <v>11079</v>
       </c>
@@ -2881,10 +3296,10 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="35">
         <v>4977</v>
       </c>
@@ -2897,10 +3312,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="35">
         <v>11682</v>
       </c>
@@ -2913,10 +3328,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="35">
         <v>10576</v>
       </c>
@@ -2929,10 +3344,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="35">
         <v>1838</v>
       </c>
@@ -2967,132 +3382,132 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1"/>
     <row r="33" spans="2:6" ht="15" customHeight="1">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="71"/>
+      <c r="C34" s="59"/>
       <c r="D34" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="77" t="s">
+      <c r="E34" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="78"/>
+      <c r="F34" s="68"/>
     </row>
     <row r="35" spans="2:6" ht="15" customHeight="1">
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="71"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="43">
         <f>D23/$F$29</f>
         <v>0.17242968693514568</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="65">
         <f>E23/$F$29</f>
         <v>0.17190550213288988</v>
       </c>
-      <c r="F35" s="63"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" spans="2:6" ht="15" customHeight="1">
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="71"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="43">
         <f t="shared" ref="D36:E40" si="2">D24/$F$29</f>
         <v>0.10012833489986263</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="65">
         <f t="shared" si="2"/>
         <v>0.17456257682018653</v>
       </c>
-      <c r="F36" s="63"/>
+      <c r="F36" s="66"/>
     </row>
     <row r="37" spans="2:6" ht="15" customHeight="1">
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="71"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="43">
         <f t="shared" si="2"/>
         <v>4.4980478634950471E-2</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="65">
         <f t="shared" si="2"/>
         <v>7.1822355578049307E-2</v>
       </c>
-      <c r="F37" s="63"/>
+      <c r="F37" s="66"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="71"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="43">
         <f t="shared" si="2"/>
         <v>0.10557804930952208</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="65">
         <f t="shared" si="2"/>
         <v>1.0284867327019016E-2</v>
       </c>
-      <c r="F38" s="63"/>
+      <c r="F38" s="66"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="71"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="43">
         <f t="shared" si="2"/>
         <v>9.5582387390644202E-2</v>
       </c>
-      <c r="E39" s="62">
+      <c r="E39" s="65">
         <f t="shared" si="2"/>
         <v>3.1469163473356952E-2</v>
       </c>
-      <c r="F39" s="63"/>
+      <c r="F39" s="66"/>
     </row>
     <row r="40" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="45">
         <f t="shared" si="2"/>
         <v>1.6611235630106282E-2</v>
       </c>
-      <c r="E40" s="60">
+      <c r="E40" s="77">
         <f t="shared" si="2"/>
         <v>4.6453618682669364E-3</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="78"/>
     </row>
     <row r="41" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="42" spans="2:6">
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="74"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="48" t="s">
         <v>25</v>
       </c>
@@ -3102,10 +3517,10 @@
       <c r="F43" s="49"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="59"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="3">
         <v>0.17242968693514568</v>
       </c>
@@ -3118,10 +3533,10 @@
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="59"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="3">
         <v>0.10012833489986263</v>
       </c>
@@ -3134,10 +3549,10 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="59"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="3">
         <v>4.4980478634950471E-2</v>
       </c>
@@ -3150,10 +3565,10 @@
       </c>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="59"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="3">
         <v>0.10557804930952208</v>
       </c>
@@ -3166,10 +3581,10 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="3">
         <v>9.5582387390644202E-2</v>
       </c>
@@ -3181,11 +3596,11 @@
         <v>0.12705155086400116</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="58" t="s">
+    <row r="49" spans="2:8">
+      <c r="B49" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="59"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="3">
         <v>1.6611235630106282E-2</v>
       </c>
@@ -3197,9 +3612,9 @@
         <v>2.125659749837322E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
+    <row r="50" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
       <c r="D50" s="47">
         <f>SUM(D44:D49)</f>
         <v>0.5353101728002313</v>
@@ -3213,87 +3628,96 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:8">
       <c r="B52" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:8">
       <c r="B53" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C53" s="27">
         <f>E44/E50</f>
         <v>0.36993601338078852</v>
       </c>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:8">
       <c r="B56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="27">
         <f>D47/D50</f>
         <v>0.19722780300855972</v>
       </c>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:8">
       <c r="B59" s="28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
+      <c r="D59" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="E59" s="28"/>
       <c r="F59" s="28"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:8">
       <c r="B60" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
       <c r="F60" s="28"/>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="H60" s="79"/>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="28">
-        <f>E46</f>
-        <v>7.1822355578049307E-2</v>
+        <f>E44/E50</f>
+        <v>0.36993601338078852</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
       <c r="F61" s="28"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:8">
       <c r="B62" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62">
-        <f>E46/E50</f>
-        <v>0.1545597759495887</v>
+        <f>F44</f>
+        <v>0.34433518906803556</v>
       </c>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:8">
       <c r="B63" s="50" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:8">
       <c r="B64" s="28"/>
     </row>
     <row r="65" spans="1:8">
@@ -3301,15 +3725,15 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
         <v>52</v>
-      </c>
-      <c r="B67" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="27">
         <f>0.85*0.85</f>
@@ -3318,12 +3742,12 @@
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="B71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="27">
         <f>C68+(0.85*0.15)</f>
@@ -3332,7 +3756,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3343,7 +3767,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="B75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3351,7 +3775,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3362,7 +3786,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="B79" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15" customHeight="1">
@@ -3371,7 +3795,7 @@
         <v>0.43871199999999999</v>
       </c>
       <c r="E80" s="51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
@@ -3379,7 +3803,7 @@
     </row>
     <row r="81" spans="2:8">
       <c r="B81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E81" s="51"/>
       <c r="F81" s="51"/>
@@ -3398,6 +3822,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E80:H82"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B42:F42"/>
@@ -3410,28 +3853,10 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="E80:H82"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>